--- a/hypo2summary.xlsx
+++ b/hypo2summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>불안녕감</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,13 @@
   <si>
     <t>대면소통의 불안녕감/안녕감에 대한 고립감/소속연결감의 
 미디어유형별 매개된 조절효과 요약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대
+면
+소
+통</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +135,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +240,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,35 +286,44 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,193 +605,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="B2:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="B2" sqref="B2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="1" customWidth="1"/>
-    <col min="8" max="9" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.25" style="1"/>
+    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
+    <col min="5" max="13" width="6.25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="2" spans="2:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="11" t="s">
+    <row r="3" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
-    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="5" t="s">
+    <row r="4" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+    <row r="5" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="9" t="s">
+    <row r="6" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+    <row r="7" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="9" t="s">
+    <row r="8" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C6:K6"/>
+  <mergeCells count="9">
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
